--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://radwareil-my.sharepoint.com/personal/danielo_radware_com/Documents/Scripts &amp; Vscode/DP Bulk Upgrader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{A45937BA-9C0F-4C7F-8C0A-07C69CC5E85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAE81054-2FAD-4F5A-BCA6-9A25AD09083D}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{A45937BA-9C0F-4C7F-8C0A-07C69CC5E85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDFFDB9A-EBA0-4F8D-99E8-D2BF7D181D1B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F7D1688-DF6D-444B-8E95-EF9B9C7187D1}"/>
   </bookViews>
@@ -49,15 +49,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>10.213.51.212</t>
-  </si>
-  <si>
-    <t>10.213.51.213</t>
-  </si>
-  <si>
-    <t>10.213.51.211</t>
-  </si>
-  <si>
     <t>Supported Platforms</t>
   </si>
   <si>
@@ -122,6 +113,15 @@
   </si>
   <si>
     <t>DefensePro_VA_v8-26-2-0-b55_Upgrade_VMware.tgz</t>
+  </si>
+  <si>
+    <t>10.10.10.1</t>
+  </si>
+  <si>
+    <t>10.10.10.2</t>
+  </si>
+  <si>
+    <t>10.10.10.3</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,58 +510,58 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -597,7 +597,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -642,7 +642,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
